--- a/Letture.xlsx
+++ b/Letture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\WSL_shared\Tesi_magistrale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4B7C62-D960-459B-B1EF-B3499FAF158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBFECA6-0FCD-4115-9842-5FD2B2169693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,6 +39,272 @@
     <t>Subcritical multiplication factor and source efficiency... (Shahbunder, 2010)</t>
   </si>
   <si>
+    <t>Burnup Calculations for KIPT... (2009)</t>
+  </si>
+  <si>
+    <t>Reactivity determination in a subcritical reactor... (2021)</t>
+  </si>
+  <si>
+    <r>
+      <t>Feedback (Breve Termine):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Indaga esplicitamente i </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>feedback di reattività</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, come quelli di temperatura del combustibile e del moderatore, confermando che sono negativi.</t>
+    </r>
+  </si>
+  <si>
+    <t>The electron accelerator driven sub-critical system (2021)</t>
+  </si>
+  <si>
+    <t>...sub-criticalization of the holos small modular reactor... (Firoozabadi, 2022)</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>Tesi Polimi: Numerical evaluation of reactivity feedback... (2017)</t>
+  </si>
+  <si>
+    <r>
+      <t>Metodologia (Locale):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Una tesi del tuo ateneo (Polimi) che spiega come calcolare i </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>coefficienti di feedback di reattività</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (es. temperatura) con codici Monte Carlo.</t>
+    </r>
+  </si>
+  <si>
+    <t>Perspectives of transmutation... (Alesini, 2024)</t>
+  </si>
+  <si>
+    <r>
+      <t>Feedback (Lungo Termine):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Recentissimo (2024). Collega la trasmutazione (che </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>è</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> il tuo feedback di burnup) ai sistemi e-driven.</t>
+    </r>
+  </si>
+  <si>
+    <t>The electron accelerator driven sub-critical system (Liu, 2022)</t>
+  </si>
+  <si>
+    <r>
+      <t>Studio di Sistema (Recente):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Simile al [6], un altro studio di caso completo e moderno (2022) su un eADS.</t>
+    </r>
+  </si>
+  <si>
+    <t>Neutronic and burnup studies... (2004)</t>
+  </si>
+  <si>
+    <r>
+      <t>Feedback (Lungo Termine):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Definisce il "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>burnup reactivity swing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" (la variazione $\Delta k$ nel tempo) come il parametro chiave da ottimizzare.</t>
+    </r>
+  </si>
+  <si>
+    <t>Optimization studies of photo-neutron production... (Petwal, 2007)</t>
+  </si>
+  <si>
+    <r>
+      <t>Fisica della Sorgente:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Utile per capire la fisica della tua sorgente $N_0$ (produzione di foto-neutroni) da cui parte tutta la moltiplicazione.</t>
+    </r>
+  </si>
+  <si>
+    <t>BASSA</t>
+  </si>
+  <si>
+    <t>The physics of accelerator driven sub-critical reactors (2000)</t>
+  </si>
+  <si>
+    <r>
+      <t>Teoria di Base:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Una spiegazione teorica chiara della differenza fisica tra $k_s$ (sorgente) e $k_{eff}$ (autovalore).</t>
+    </r>
+  </si>
+  <si>
+    <t>80 years of experimental photo-fission research (Balabanski, 2024)</t>
+  </si>
+  <si>
+    <r>
+      <t>Contesto Fisico:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Una review recentissima (2024) sulla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fisica della fotofissione</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Utile per consolidare le basi teoriche della tua sorgente.</t>
+    </r>
+  </si>
+  <si>
+    <t>...subcritical molten salt ultimate safety reactor (Abalin, 1995)</t>
+  </si>
+  <si>
+    <r>
+      <t>Caso di Studio (Alternativo):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Un sistema a sali fusi (diverso dal tuo). Utile per confrontare come i feedback (es. Xeno, Pa) si comportano quando possono essere estratti online.</t>
+    </r>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
     <r>
       <t>Fisica di K:</t>
     </r>
@@ -49,11 +315,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Il paper chiave. Analizza la differenza fondamentale tra $k_{eff}$ (autovalore) e $k_s$ (moltiplicazione della sorgente). Essenziale per definire il "K" che stai misurando.</t>
-    </r>
-  </si>
-  <si>
-    <t>Burnup Calculations for KIPT... (2009)</t>
+      <t xml:space="preserve"> Il paper chiave. Analizza la differenza fondamentale tra k_{eff} (autovalore) e k_s (moltiplicazione della sorgente). Essenziale per definire il "K" che stai misurando.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -85,47 +348,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (l'evoluzione di $k$) in un sistema e-driven.</t>
-    </r>
-  </si>
-  <si>
-    <t>Reactivity determination in a subcritical reactor... (2021)</t>
-  </si>
-  <si>
-    <r>
-      <t>Feedback (Breve Termine):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Indaga esplicitamente i </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>feedback di reattività</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, come quelli di temperatura del combustibile e del moderatore, confermando che sono negativi.</t>
-    </r>
-  </si>
-  <si>
-    <t>The electron accelerator driven sub-critical system (2021)</t>
+      <t xml:space="preserve"> (l'evoluzione di k) in un sistema e-driven.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -138,11 +362,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Mostra un calcolo pratico dell'evoluzione di $k_{eff}$ durante il ciclo di burnup, descrivendo l'aumento iniziale e il calo successivo.</t>
-    </r>
-  </si>
-  <si>
-    <t>...sub-criticalization of the holos small modular reactor... (Firoozabadi, 2022)</t>
+      <t xml:space="preserve"> Mostra un calcolo pratico dell'evoluzione di k_{eff} durante il ciclo di burnup, descrivendo l'aumento iniziale e il calo successivo.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -155,229 +376,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Un esempio moderno (2022) di come modellare la "sub-criticalizzazione" (calcolo di $k_{eff}$) in un sistema e-driven.</t>
-    </r>
-  </si>
-  <si>
-    <t>MEDIA</t>
-  </si>
-  <si>
-    <t>Tesi Polimi: Numerical evaluation of reactivity feedback... (2017)</t>
-  </si>
-  <si>
-    <r>
-      <t>Metodologia (Locale):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Una tesi del tuo ateneo (Polimi) che spiega come calcolare i </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>coefficienti di feedback di reattività</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (es. temperatura) con codici Monte Carlo.</t>
-    </r>
-  </si>
-  <si>
-    <t>Perspectives of transmutation... (Alesini, 2024)</t>
-  </si>
-  <si>
-    <r>
-      <t>Feedback (Lungo Termine):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Recentissimo (2024). Collega la trasmutazione (che </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>è</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> il tuo feedback di burnup) ai sistemi e-driven.</t>
-    </r>
-  </si>
-  <si>
-    <t>The electron accelerator driven sub-critical system (Liu, 2022)</t>
-  </si>
-  <si>
-    <r>
-      <t>Studio di Sistema (Recente):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Simile al [6], un altro studio di caso completo e moderno (2022) su un eADS.</t>
-    </r>
-  </si>
-  <si>
-    <t>Neutronic and burnup studies... (2004)</t>
-  </si>
-  <si>
-    <r>
-      <t>Feedback (Lungo Termine):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Definisce il "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>burnup reactivity swing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>" (la variazione $\Delta k$ nel tempo) come il parametro chiave da ottimizzare.</t>
-    </r>
-  </si>
-  <si>
-    <t>Optimization studies of photo-neutron production... (Petwal, 2007)</t>
-  </si>
-  <si>
-    <r>
-      <t>Fisica della Sorgente:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Utile per capire la fisica della tua sorgente $N_0$ (produzione di foto-neutroni) da cui parte tutta la moltiplicazione.</t>
-    </r>
-  </si>
-  <si>
-    <t>BASSA</t>
-  </si>
-  <si>
-    <t>The physics of accelerator driven sub-critical reactors (2000)</t>
-  </si>
-  <si>
-    <r>
-      <t>Teoria di Base:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Una spiegazione teorica chiara della differenza fisica tra $k_s$ (sorgente) e $k_{eff}$ (autovalore).</t>
-    </r>
-  </si>
-  <si>
-    <t>80 years of experimental photo-fission research (Balabanski, 2024)</t>
-  </si>
-  <si>
-    <r>
-      <t>Contesto Fisico:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Una review recentissima (2024) sulla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>fisica della fotofissione</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Utile per consolidare le basi teoriche della tua sorgente.</t>
-    </r>
-  </si>
-  <si>
-    <t>...subcritical molten salt ultimate safety reactor (Abalin, 1995)</t>
-  </si>
-  <si>
-    <r>
-      <t>Caso di Studio (Alternativo):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Un sistema a sali fusi (diverso dal tuo). Utile per confrontare come i feedback (es. Xeno, Pa) si comportano quando possono essere estratti online.</t>
-    </r>
-  </si>
-  <si>
-    <t>INFO</t>
+      <t xml:space="preserve"> Un esempio moderno (2022) di come modellare la "sub-criticalizzazione" (calcolo di $_{eff}) in un sistema e-driven.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -768,7 +768,7 @@
   <dimension ref="C4:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,11 +788,11 @@
       <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -803,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -811,10 +811,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -822,10 +822,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -833,10 +833,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -844,98 +844,98 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Letture.xlsx
+++ b/Letture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\WSL_shared\Tesi_magistrale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBFECA6-0FCD-4115-9842-5FD2B2169693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD42919-F803-4AA6-8387-C2DE92C4CCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,6 +179,99 @@
     <t>Neutronic and burnup studies... (2004)</t>
   </si>
   <si>
+    <t>Optimization studies of photo-neutron production... (Petwal, 2007)</t>
+  </si>
+  <si>
+    <r>
+      <t>Fisica della Sorgente:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Utile per capire la fisica della tua sorgente $N_0$ (produzione di foto-neutroni) da cui parte tutta la moltiplicazione.</t>
+    </r>
+  </si>
+  <si>
+    <t>BASSA</t>
+  </si>
+  <si>
+    <t>The physics of accelerator driven sub-critical reactors (2000)</t>
+  </si>
+  <si>
+    <t>80 years of experimental photo-fission research (Balabanski, 2024)</t>
+  </si>
+  <si>
+    <r>
+      <t>Contesto Fisico:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Una review recentissima (2024) sulla </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fisica della fotofissione</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Utile per consolidare le basi teoriche della tua sorgente.</t>
+    </r>
+  </si>
+  <si>
+    <t>...subcritical molten salt ultimate safety reactor (Abalin, 1995)</t>
+  </si>
+  <si>
+    <r>
+      <t>Caso di Studio (Alternativo):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Un sistema a sali fusi (diverso dal tuo). Utile per confrontare come i feedback (es. Xeno, Pa) si comportano quando possono essere estratti online.</t>
+    </r>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <r>
+      <t>Fisica di K:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Il paper chiave. Analizza la differenza fondamentale tra k_{eff} (autovalore) e k_s (moltiplicazione della sorgente). Essenziale per definire il "K" che stai misurando.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>Feedback (Lungo Termine):</t>
     </r>
@@ -189,6 +282,67 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> Descrive la metodologia esatta (es. MCNPX, MCB) per calcolare il </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>burnup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (l'evoluzione di k) in un sistema e-driven.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feedback (Lungo Termine):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Mostra un calcolo pratico dell'evoluzione di k_{eff} durante il ciclo di burnup, descrivendo l'aumento iniziale e il calo successivo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Studio di Sistema (Recente):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Un esempio moderno (2022) di come modellare la "sub-criticalizzazione" (calcolo di $_{eff}) in un sistema e-driven.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Feedback (Lungo Termine):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1B1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> Definisce il "</t>
     </r>
     <r>
@@ -208,31 +362,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>" (la variazione $\Delta k$ nel tempo) come il parametro chiave da ottimizzare.</t>
-    </r>
-  </si>
-  <si>
-    <t>Optimization studies of photo-neutron production... (Petwal, 2007)</t>
-  </si>
-  <si>
-    <r>
-      <t>Fisica della Sorgente:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Utile per capire la fisica della tua sorgente $N_0$ (produzione di foto-neutroni) da cui parte tutta la moltiplicazione.</t>
-    </r>
-  </si>
-  <si>
-    <t>BASSA</t>
-  </si>
-  <si>
-    <t>The physics of accelerator driven sub-critical reactors (2000)</t>
+      <t>" (la variazione \Delta k nel tempo) come il parametro chiave da ottimizzare.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -245,138 +376,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Una spiegazione teorica chiara della differenza fisica tra $k_s$ (sorgente) e $k_{eff}$ (autovalore).</t>
-    </r>
-  </si>
-  <si>
-    <t>80 years of experimental photo-fission research (Balabanski, 2024)</t>
-  </si>
-  <si>
-    <r>
-      <t>Contesto Fisico:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Una review recentissima (2024) sulla </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>fisica della fotofissione</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>. Utile per consolidare le basi teoriche della tua sorgente.</t>
-    </r>
-  </si>
-  <si>
-    <t>...subcritical molten salt ultimate safety reactor (Abalin, 1995)</t>
-  </si>
-  <si>
-    <r>
-      <t>Caso di Studio (Alternativo):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Un sistema a sali fusi (diverso dal tuo). Utile per confrontare come i feedback (es. Xeno, Pa) si comportano quando possono essere estratti online.</t>
-    </r>
-  </si>
-  <si>
-    <t>INFO</t>
-  </si>
-  <si>
-    <r>
-      <t>Fisica di K:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Il paper chiave. Analizza la differenza fondamentale tra k_{eff} (autovalore) e k_s (moltiplicazione della sorgente). Essenziale per definire il "K" che stai misurando.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Feedback (Lungo Termine):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Descrive la metodologia esatta (es. MCNPX, MCB) per calcolare il </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>burnup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (l'evoluzione di k) in un sistema e-driven.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Feedback (Lungo Termine):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Mostra un calcolo pratico dell'evoluzione di k_{eff} durante il ciclo di burnup, descrivendo l'aumento iniziale e il calo successivo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Studio di Sistema (Recente):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1B1C1D"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Un esempio moderno (2022) di come modellare la "sub-criticalizzazione" (calcolo di $_{eff}) in un sistema e-driven.</t>
+      <t xml:space="preserve"> Una spiegazione teorica chiara della differenza fisica tra k_s (sorgente) e k_{eff} (autovalore).</t>
     </r>
   </si>
 </sst>
@@ -768,7 +768,7 @@
   <dimension ref="C4:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -803,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -814,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -836,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -891,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -899,43 +899,43 @@
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="66.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
